--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.704832327383475</v>
+        <v>0.7373436666666667</v>
       </c>
       <c r="H2">
-        <v>0.704832327383475</v>
+        <v>2.212031</v>
       </c>
       <c r="I2">
-        <v>0.1948936413027027</v>
+        <v>0.1678759332276003</v>
       </c>
       <c r="J2">
-        <v>0.1948936413027027</v>
+        <v>0.1678759332276003</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N2">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q2">
-        <v>11.94260590896804</v>
+        <v>13.55420299359567</v>
       </c>
       <c r="R2">
-        <v>11.94260590896804</v>
+        <v>121.987826942361</v>
       </c>
       <c r="S2">
-        <v>0.01172994311709722</v>
+        <v>0.01071075075660254</v>
       </c>
       <c r="T2">
-        <v>0.01172994311709722</v>
+        <v>0.01071075075660254</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.704832327383475</v>
+        <v>0.7373436666666667</v>
       </c>
       <c r="H3">
-        <v>0.704832327383475</v>
+        <v>2.212031</v>
       </c>
       <c r="I3">
-        <v>0.1948936413027027</v>
+        <v>0.1678759332276003</v>
       </c>
       <c r="J3">
-        <v>0.1948936413027027</v>
+        <v>0.1678759332276003</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q3">
-        <v>57.90624980685713</v>
+        <v>60.93654211227388</v>
       </c>
       <c r="R3">
-        <v>57.90624980685713</v>
+        <v>548.4288790104649</v>
       </c>
       <c r="S3">
-        <v>0.05687510929660653</v>
+        <v>0.0481530426276018</v>
       </c>
       <c r="T3">
-        <v>0.05687510929660653</v>
+        <v>0.0481530426276018</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.704832327383475</v>
+        <v>0.7373436666666667</v>
       </c>
       <c r="H4">
-        <v>0.704832327383475</v>
+        <v>2.212031</v>
       </c>
       <c r="I4">
-        <v>0.1948936413027027</v>
+        <v>0.1678759332276003</v>
       </c>
       <c r="J4">
-        <v>0.1948936413027027</v>
+        <v>0.1678759332276003</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N4">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q4">
-        <v>64.0923064129192</v>
+        <v>67.28334446918778</v>
       </c>
       <c r="R4">
-        <v>64.0923064129192</v>
+        <v>605.55010022269</v>
       </c>
       <c r="S4">
-        <v>0.06295101037392188</v>
+        <v>0.05316838865557869</v>
       </c>
       <c r="T4">
-        <v>0.06295101037392188</v>
+        <v>0.05316838865557869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.704832327383475</v>
+        <v>0.7373436666666667</v>
       </c>
       <c r="H5">
-        <v>0.704832327383475</v>
+        <v>2.212031</v>
       </c>
       <c r="I5">
-        <v>0.1948936413027027</v>
+        <v>0.1678759332276003</v>
       </c>
       <c r="J5">
-        <v>0.1948936413027027</v>
+        <v>0.1678759332276003</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N5">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q5">
-        <v>55.18475623770861</v>
+        <v>59.93752795893078</v>
       </c>
       <c r="R5">
-        <v>55.18475623770861</v>
+        <v>539.437751630377</v>
       </c>
       <c r="S5">
-        <v>0.05420207754767424</v>
+        <v>0.0473636054615927</v>
       </c>
       <c r="T5">
-        <v>0.05420207754767424</v>
+        <v>0.0473636054615927</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.704832327383475</v>
+        <v>0.7373436666666667</v>
       </c>
       <c r="H6">
-        <v>0.704832327383475</v>
+        <v>2.212031</v>
       </c>
       <c r="I6">
-        <v>0.1948936413027027</v>
+        <v>0.1678759332276003</v>
       </c>
       <c r="J6">
-        <v>0.1948936413027027</v>
+        <v>0.1678759332276003</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N6">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q6">
-        <v>9.301126761276903</v>
+        <v>10.73142482730878</v>
       </c>
       <c r="R6">
-        <v>9.301126761276903</v>
+        <v>96.582823445779</v>
       </c>
       <c r="S6">
-        <v>0.009135500967402874</v>
+        <v>0.008480145726224587</v>
       </c>
       <c r="T6">
-        <v>0.009135500967402874</v>
+        <v>0.008480145726224587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.85009784174101</v>
+        <v>1.856540333333333</v>
       </c>
       <c r="H7">
-        <v>1.85009784174101</v>
+        <v>5.569621</v>
       </c>
       <c r="I7">
-        <v>0.5115717471156823</v>
+        <v>0.422690876890532</v>
       </c>
       <c r="J7">
-        <v>0.5115717471156823</v>
+        <v>0.422690876890532</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N7">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q7">
-        <v>31.34786609315676</v>
+        <v>34.12780997707232</v>
       </c>
       <c r="R7">
-        <v>31.34786609315676</v>
+        <v>307.150289793651</v>
       </c>
       <c r="S7">
-        <v>0.03078965251955495</v>
+        <v>0.02696834824635794</v>
       </c>
       <c r="T7">
-        <v>0.03078965251955495</v>
+        <v>0.02696834824635793</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.85009784174101</v>
+        <v>1.856540333333333</v>
       </c>
       <c r="H8">
-        <v>1.85009784174101</v>
+        <v>5.569621</v>
       </c>
       <c r="I8">
-        <v>0.5115717471156823</v>
+        <v>0.422690876890532</v>
       </c>
       <c r="J8">
-        <v>0.5115717471156823</v>
+        <v>0.422690876890532</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q8">
-        <v>151.9967567161476</v>
+        <v>153.4306908971461</v>
       </c>
       <c r="R8">
-        <v>151.9967567161476</v>
+        <v>1380.876218074315</v>
       </c>
       <c r="S8">
-        <v>0.1492901401799449</v>
+        <v>0.1212434172181973</v>
       </c>
       <c r="T8">
-        <v>0.1492901401799449</v>
+        <v>0.1212434172181973</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.85009784174101</v>
+        <v>1.856540333333333</v>
       </c>
       <c r="H9">
-        <v>1.85009784174101</v>
+        <v>5.569621</v>
       </c>
       <c r="I9">
-        <v>0.5115717471156823</v>
+        <v>0.422690876890532</v>
       </c>
       <c r="J9">
-        <v>0.5115717471156823</v>
+        <v>0.422690876890532</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N9">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q9">
-        <v>168.2343915849246</v>
+        <v>169.4111557685322</v>
       </c>
       <c r="R9">
-        <v>168.2343915849246</v>
+        <v>1524.70040191679</v>
       </c>
       <c r="S9">
-        <v>0.1652386303854135</v>
+        <v>0.1338714394112346</v>
       </c>
       <c r="T9">
-        <v>0.1652386303854135</v>
+        <v>0.1338714394112346</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.85009784174101</v>
+        <v>1.856540333333333</v>
       </c>
       <c r="H10">
-        <v>1.85009784174101</v>
+        <v>5.569621</v>
       </c>
       <c r="I10">
-        <v>0.5115717471156823</v>
+        <v>0.422690876890532</v>
       </c>
       <c r="J10">
-        <v>0.5115717471156823</v>
+        <v>0.422690876890532</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N10">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q10">
-        <v>144.8531720890277</v>
+        <v>150.9152965795452</v>
       </c>
       <c r="R10">
-        <v>144.8531720890277</v>
+        <v>1358.237669215907</v>
       </c>
       <c r="S10">
-        <v>0.1422737618478622</v>
+        <v>0.1192557118840565</v>
       </c>
       <c r="T10">
-        <v>0.1422737618478622</v>
+        <v>0.1192557118840565</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.85009784174101</v>
+        <v>1.856540333333333</v>
       </c>
       <c r="H11">
-        <v>1.85009784174101</v>
+        <v>5.569621</v>
       </c>
       <c r="I11">
-        <v>0.5115717471156823</v>
+        <v>0.422690876890532</v>
       </c>
       <c r="J11">
-        <v>0.5115717471156823</v>
+        <v>0.422690876890532</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N11">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q11">
-        <v>24.41430944389086</v>
+        <v>27.02040300434322</v>
       </c>
       <c r="R11">
-        <v>24.41430944389086</v>
+        <v>243.183627039089</v>
       </c>
       <c r="S11">
-        <v>0.02397956218290681</v>
+        <v>0.02135196013068565</v>
       </c>
       <c r="T11">
-        <v>0.02397956218290681</v>
+        <v>0.02135196013068565</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.06156712997801</v>
+        <v>0.06709466666666666</v>
       </c>
       <c r="H12">
-        <v>1.06156712997801</v>
+        <v>0.201284</v>
       </c>
       <c r="I12">
-        <v>0.2935346115816148</v>
+        <v>0.01527588869404827</v>
       </c>
       <c r="J12">
-        <v>0.2935346115816148</v>
+        <v>0.01527588869404827</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N12">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q12">
-        <v>17.98708343345329</v>
+        <v>1.233366166822667</v>
       </c>
       <c r="R12">
-        <v>17.98708343345329</v>
+        <v>11.100295501404</v>
       </c>
       <c r="S12">
-        <v>0.01766678622112553</v>
+        <v>0.0009746259230960081</v>
       </c>
       <c r="T12">
-        <v>0.01766678622112553</v>
+        <v>0.0009746259230960078</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.06156712997801</v>
+        <v>0.06709466666666666</v>
       </c>
       <c r="H13">
-        <v>1.06156712997801</v>
+        <v>0.201284</v>
       </c>
       <c r="I13">
-        <v>0.2935346115816148</v>
+        <v>0.01527588869404827</v>
       </c>
       <c r="J13">
-        <v>0.2935346115816148</v>
+        <v>0.01527588869404827</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q13">
-        <v>87.21417708443241</v>
+        <v>5.544927237695554</v>
       </c>
       <c r="R13">
-        <v>87.21417708443241</v>
+        <v>49.90434513925999</v>
       </c>
       <c r="S13">
-        <v>0.08566114832916187</v>
+        <v>0.004381691319992441</v>
       </c>
       <c r="T13">
-        <v>0.08566114832916187</v>
+        <v>0.004381691319992441</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.06156712997801</v>
+        <v>0.06709466666666666</v>
       </c>
       <c r="H14">
-        <v>1.06156712997801</v>
+        <v>0.201284</v>
       </c>
       <c r="I14">
-        <v>0.2935346115816148</v>
+        <v>0.01527588869404827</v>
       </c>
       <c r="J14">
-        <v>0.2935346115816148</v>
+        <v>0.01527588869404827</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N14">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q14">
-        <v>96.53116511413438</v>
+        <v>6.122455204351111</v>
       </c>
       <c r="R14">
-        <v>96.53116511413438</v>
+        <v>55.10209683916</v>
       </c>
       <c r="S14">
-        <v>0.09481222812230926</v>
+        <v>0.004838063274045209</v>
       </c>
       <c r="T14">
-        <v>0.09481222812230926</v>
+        <v>0.004838063274045209</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.06156712997801</v>
+        <v>0.06709466666666666</v>
       </c>
       <c r="H15">
-        <v>1.06156712997801</v>
+        <v>0.201284</v>
       </c>
       <c r="I15">
-        <v>0.2935346115816148</v>
+        <v>0.01527588869404827</v>
       </c>
       <c r="J15">
-        <v>0.2935346115816148</v>
+        <v>0.01527588869404827</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N15">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q15">
-        <v>83.11526163289584</v>
+        <v>5.45402183680311</v>
       </c>
       <c r="R15">
-        <v>83.11526163289584</v>
+        <v>49.086196531228</v>
       </c>
       <c r="S15">
-        <v>0.08163522254254524</v>
+        <v>0.004309856399720991</v>
       </c>
       <c r="T15">
-        <v>0.08163522254254524</v>
+        <v>0.004309856399720991</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.06709466666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.201284</v>
+      </c>
+      <c r="I16">
+        <v>0.01527588869404827</v>
+      </c>
+      <c r="J16">
+        <v>0.01527588869404827</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="N16">
+        <v>43.662509</v>
+      </c>
+      <c r="O16">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="P16">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="Q16">
+        <v>0.976507162395111</v>
+      </c>
+      <c r="R16">
+        <v>8.788564461556</v>
+      </c>
+      <c r="S16">
+        <v>0.0007716517771936242</v>
+      </c>
+      <c r="T16">
+        <v>0.0007716517771936241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.229926</v>
+      </c>
+      <c r="H17">
+        <v>0.689778</v>
+      </c>
+      <c r="I17">
+        <v>0.05234878058664986</v>
+      </c>
+      <c r="J17">
+        <v>0.05234878058664987</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.382477</v>
+      </c>
+      <c r="N17">
+        <v>55.147431</v>
+      </c>
+      <c r="O17">
+        <v>0.06380158579420245</v>
+      </c>
+      <c r="P17">
+        <v>0.06380158579420243</v>
+      </c>
+      <c r="Q17">
+        <v>4.226609406701999</v>
+      </c>
+      <c r="R17">
+        <v>38.039484660318</v>
+      </c>
+      <c r="S17">
+        <v>0.00333993521582102</v>
+      </c>
+      <c r="T17">
+        <v>0.00333993521582102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.229926</v>
+      </c>
+      <c r="H18">
+        <v>0.689778</v>
+      </c>
+      <c r="I18">
+        <v>0.05234878058664986</v>
+      </c>
+      <c r="J18">
+        <v>0.05234878058664987</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>82.64333833333332</v>
+      </c>
+      <c r="N18">
+        <v>247.930015</v>
+      </c>
+      <c r="O18">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="P18">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="Q18">
+        <v>19.00185220962999</v>
+      </c>
+      <c r="R18">
+        <v>171.01666988667</v>
+      </c>
+      <c r="S18">
+        <v>0.01501557140816829</v>
+      </c>
+      <c r="T18">
+        <v>0.01501557140816829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.229926</v>
+      </c>
+      <c r="H19">
+        <v>0.689778</v>
+      </c>
+      <c r="I19">
+        <v>0.05234878058664986</v>
+      </c>
+      <c r="J19">
+        <v>0.05234878058664987</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>91.25099666666667</v>
+      </c>
+      <c r="N19">
+        <v>273.75299</v>
+      </c>
+      <c r="O19">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="P19">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="Q19">
+        <v>20.98097665958</v>
+      </c>
+      <c r="R19">
+        <v>188.82878993622</v>
+      </c>
+      <c r="S19">
+        <v>0.01657950760638877</v>
+      </c>
+      <c r="T19">
+        <v>0.01657950760638877</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.229926</v>
+      </c>
+      <c r="H20">
+        <v>0.689778</v>
+      </c>
+      <c r="I20">
+        <v>0.05234878058664986</v>
+      </c>
+      <c r="J20">
+        <v>0.05234878058664987</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>81.28845566666666</v>
+      </c>
+      <c r="N20">
+        <v>243.865367</v>
+      </c>
+      <c r="O20">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="P20">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="Q20">
+        <v>18.690329457614</v>
+      </c>
+      <c r="R20">
+        <v>168.212965118526</v>
+      </c>
+      <c r="S20">
+        <v>0.0147694010834778</v>
+      </c>
+      <c r="T20">
+        <v>0.0147694010834778</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.229926</v>
+      </c>
+      <c r="H21">
+        <v>0.689778</v>
+      </c>
+      <c r="I21">
+        <v>0.05234878058664986</v>
+      </c>
+      <c r="J21">
+        <v>0.05234878058664987</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="N21">
+        <v>43.662509</v>
+      </c>
+      <c r="O21">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="P21">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="Q21">
+        <v>3.346382014778</v>
+      </c>
+      <c r="R21">
+        <v>30.117438133002</v>
+      </c>
+      <c r="S21">
+        <v>0.002644365272793981</v>
+      </c>
+      <c r="T21">
+        <v>0.002644365272793981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.501289333333333</v>
+      </c>
+      <c r="H22">
+        <v>4.503868000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.3418085206011696</v>
+      </c>
+      <c r="J22">
+        <v>0.3418085206011696</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>18.382477</v>
+      </c>
+      <c r="N22">
+        <v>55.147431</v>
+      </c>
+      <c r="O22">
+        <v>0.06380158579420245</v>
+      </c>
+      <c r="P22">
+        <v>0.06380158579420243</v>
+      </c>
+      <c r="Q22">
+        <v>27.59741664034533</v>
+      </c>
+      <c r="R22">
+        <v>248.376749763108</v>
+      </c>
+      <c r="S22">
+        <v>0.02180792565232494</v>
+      </c>
+      <c r="T22">
+        <v>0.02180792565232493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.501289333333333</v>
+      </c>
+      <c r="H23">
+        <v>4.503868000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.3418085206011696</v>
+      </c>
+      <c r="J23">
+        <v>0.3418085206011696</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>82.64333833333332</v>
+      </c>
+      <c r="N23">
+        <v>247.930015</v>
+      </c>
+      <c r="O23">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="P23">
+        <v>0.2868370808239535</v>
+      </c>
+      <c r="Q23">
+        <v>124.0715623108911</v>
+      </c>
+      <c r="R23">
+        <v>1116.64406079802</v>
+      </c>
+      <c r="S23">
+        <v>0.09804335824999366</v>
+      </c>
+      <c r="T23">
+        <v>0.09804335824999366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.06156712997801</v>
-      </c>
-      <c r="H16">
-        <v>1.06156712997801</v>
-      </c>
-      <c r="I16">
-        <v>0.2935346115816148</v>
-      </c>
-      <c r="J16">
-        <v>0.2935346115816148</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>13.1962261092722</v>
-      </c>
-      <c r="N16">
-        <v>13.1962261092722</v>
-      </c>
-      <c r="O16">
-        <v>0.04687428951678264</v>
-      </c>
-      <c r="P16">
-        <v>0.04687428951678264</v>
-      </c>
-      <c r="Q16">
-        <v>14.00867987736097</v>
-      </c>
-      <c r="R16">
-        <v>14.00867987736097</v>
-      </c>
-      <c r="S16">
-        <v>0.01375922636647295</v>
-      </c>
-      <c r="T16">
-        <v>0.01375922636647295</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.501289333333333</v>
+      </c>
+      <c r="H24">
+        <v>4.503868000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.3418085206011696</v>
+      </c>
+      <c r="J24">
+        <v>0.3418085206011696</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>91.25099666666667</v>
+      </c>
+      <c r="N24">
+        <v>273.75299</v>
+      </c>
+      <c r="O24">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="P24">
+        <v>0.3167123936907314</v>
+      </c>
+      <c r="Q24">
+        <v>136.9941479517022</v>
+      </c>
+      <c r="R24">
+        <v>1232.94733156532</v>
+      </c>
+      <c r="S24">
+        <v>0.1082549947434841</v>
+      </c>
+      <c r="T24">
+        <v>0.1082549947434841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.501289333333333</v>
+      </c>
+      <c r="H25">
+        <v>4.503868000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.3418085206011696</v>
+      </c>
+      <c r="J25">
+        <v>0.3418085206011696</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>81.28845566666666</v>
+      </c>
+      <c r="N25">
+        <v>243.865367</v>
+      </c>
+      <c r="O25">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="P25">
+        <v>0.2821345773094157</v>
+      </c>
+      <c r="Q25">
+        <v>122.0374914155062</v>
+      </c>
+      <c r="R25">
+        <v>1098.337422739556</v>
+      </c>
+      <c r="S25">
+        <v>0.09643600248056769</v>
+      </c>
+      <c r="T25">
+        <v>0.09643600248056769</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.501289333333333</v>
+      </c>
+      <c r="H26">
+        <v>4.503868000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.3418085206011696</v>
+      </c>
+      <c r="J26">
+        <v>0.3418085206011696</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>14.55416966666667</v>
+      </c>
+      <c r="N26">
+        <v>43.662509</v>
+      </c>
+      <c r="O26">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="P26">
+        <v>0.0505143623816971</v>
+      </c>
+      <c r="Q26">
+        <v>21.85001967609022</v>
+      </c>
+      <c r="R26">
+        <v>196.650177084812</v>
+      </c>
+      <c r="S26">
+        <v>0.01726623947479926</v>
+      </c>
+      <c r="T26">
+        <v>0.01726623947479926</v>
       </c>
     </row>
   </sheetData>
